--- a/docs/04 _ DATASET/tce_parte.xlsx
+++ b/docs/04 _ DATASET/tce_parte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulu\Documents\GitHub\cefet-proj-constr-sistemas\docs\04 _ DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{598768E4-EE8E-49F1-B0DB-12D8B02FEA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46244A6-5D43-4490-BC36-8AB44847F1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="960" windowWidth="13245" windowHeight="10560" xr2:uid="{A3D1587D-C303-4621-A82F-807D2F3E8C07}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3D1587D-C303-4621-A82F-807D2F3E8C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,13 +1141,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1162,10 +1175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,167 +1498,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EA7EF7-BBCF-4A42-8D13-2FD9C081BAD7}">
   <dimension ref="A1:AZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" sqref="A1:AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.7109375" customWidth="1"/>
+    <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1650,7 +1720,7 @@
       <c r="A2">
         <v>581415</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2.0200007005370001E+26</v>
       </c>
       <c r="C2">
@@ -1671,7 +1741,7 @@
       <c r="H2">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>9166343000103</v>
       </c>
       <c r="J2" t="s">
@@ -1761,7 +1831,7 @@
       <c r="AM2" t="s">
         <v>65</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="2">
         <v>2.0200053720162098E+22</v>
       </c>
       <c r="AO2" t="s">
@@ -1805,7 +1875,7 @@
       <c r="A3">
         <v>581416</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2.0200007005370001E+26</v>
       </c>
       <c r="C3">
@@ -1826,7 +1896,7 @@
       <c r="H3">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>9166343000103</v>
       </c>
       <c r="J3" t="s">
@@ -1916,7 +1986,7 @@
       <c r="AM3" t="s">
         <v>65</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="2">
         <v>2.0200053720162098E+22</v>
       </c>
       <c r="AO3" t="s">
@@ -1960,7 +2030,7 @@
       <c r="A4">
         <v>581417</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.0200007005370001E+26</v>
       </c>
       <c r="C4">
@@ -1981,7 +2051,7 @@
       <c r="H4">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>9166343000103</v>
       </c>
       <c r="J4" t="s">
@@ -2071,7 +2141,7 @@
       <c r="AM4" t="s">
         <v>65</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="2">
         <v>2.0200053720162098E+22</v>
       </c>
       <c r="AO4" t="s">
@@ -2115,7 +2185,7 @@
       <c r="A5">
         <v>581418</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.0200007005370001E+26</v>
       </c>
       <c r="C5">
@@ -2136,7 +2206,7 @@
       <c r="H5">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>9166343000103</v>
       </c>
       <c r="J5" t="s">
@@ -2226,7 +2296,7 @@
       <c r="AM5" t="s">
         <v>65</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="2">
         <v>2.0200053720162098E+22</v>
       </c>
       <c r="AO5" t="s">
@@ -2270,7 +2340,7 @@
       <c r="A6">
         <v>581466</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C6">
@@ -2291,7 +2361,7 @@
       <c r="H6">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J6" t="s">
@@ -2381,7 +2451,7 @@
       <c r="AM6" t="s">
         <v>65</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="2">
         <v>2.0180053720162099E+22</v>
       </c>
       <c r="AO6" t="s">
@@ -2425,7 +2495,7 @@
       <c r="A7">
         <v>581467</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C7">
@@ -2446,7 +2516,7 @@
       <c r="H7">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J7" t="s">
@@ -2536,7 +2606,7 @@
       <c r="AM7" t="s">
         <v>88</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO7" t="s">
@@ -2580,7 +2650,7 @@
       <c r="A8">
         <v>581468</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C8">
@@ -2601,7 +2671,7 @@
       <c r="H8">
         <v>14</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J8" t="s">
@@ -2691,7 +2761,7 @@
       <c r="AM8" t="s">
         <v>65</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="2">
         <v>2.0180053720162099E+22</v>
       </c>
       <c r="AO8" t="s">
@@ -2735,7 +2805,7 @@
       <c r="A9">
         <v>581469</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C9">
@@ -2756,7 +2826,7 @@
       <c r="H9">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J9" t="s">
@@ -2846,7 +2916,7 @@
       <c r="AM9" t="s">
         <v>65</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="2">
         <v>2.0180053720162099E+22</v>
       </c>
       <c r="AO9" t="s">
@@ -2890,7 +2960,7 @@
       <c r="A10">
         <v>581470</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C10">
@@ -2911,7 +2981,7 @@
       <c r="H10">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J10" t="s">
@@ -3001,7 +3071,7 @@
       <c r="AM10" t="s">
         <v>88</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO10" t="s">
@@ -3045,7 +3115,7 @@
       <c r="A11">
         <v>581471</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C11">
@@ -3066,7 +3136,7 @@
       <c r="H11">
         <v>14</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J11" t="s">
@@ -3156,7 +3226,7 @@
       <c r="AM11" t="s">
         <v>88</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO11" t="s">
@@ -3200,7 +3270,7 @@
       <c r="A12">
         <v>581472</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C12">
@@ -3221,7 +3291,7 @@
       <c r="H12">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J12" t="s">
@@ -3311,7 +3381,7 @@
       <c r="AM12" t="s">
         <v>65</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="2">
         <v>2.0180053720162099E+22</v>
       </c>
       <c r="AO12" t="s">
@@ -3355,7 +3425,7 @@
       <c r="A13">
         <v>581473</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C13">
@@ -3376,7 +3446,7 @@
       <c r="H13">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J13" t="s">
@@ -3466,7 +3536,7 @@
       <c r="AM13" t="s">
         <v>88</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO13" t="s">
@@ -3510,7 +3580,7 @@
       <c r="A14">
         <v>581474</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C14">
@@ -3531,7 +3601,7 @@
       <c r="H14">
         <v>14</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J14" t="s">
@@ -3621,7 +3691,7 @@
       <c r="AM14" t="s">
         <v>88</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO14" t="s">
@@ -3665,7 +3735,7 @@
       <c r="A15">
         <v>581475</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C15">
@@ -3686,7 +3756,7 @@
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J15" t="s">
@@ -3776,7 +3846,7 @@
       <c r="AM15" t="s">
         <v>88</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO15" t="s">
@@ -3820,7 +3890,7 @@
       <c r="A16">
         <v>581476</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C16">
@@ -3841,7 +3911,7 @@
       <c r="H16">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J16" t="s">
@@ -3931,7 +4001,7 @@
       <c r="AM16" t="s">
         <v>88</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO16" t="s">
@@ -3975,7 +4045,7 @@
       <c r="A17">
         <v>581477</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C17">
@@ -3996,7 +4066,7 @@
       <c r="H17">
         <v>14</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J17" t="s">
@@ -4086,7 +4156,7 @@
       <c r="AM17" t="s">
         <v>88</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO17" t="s">
@@ -4130,7 +4200,7 @@
       <c r="A18">
         <v>581478</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C18">
@@ -4151,7 +4221,7 @@
       <c r="H18">
         <v>14</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J18" t="s">
@@ -4241,7 +4311,7 @@
       <c r="AM18" t="s">
         <v>88</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO18" t="s">
@@ -4285,7 +4355,7 @@
       <c r="A19">
         <v>581479</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>2.018000700537E+26</v>
       </c>
       <c r="C19">
@@ -4306,7 +4376,7 @@
       <c r="H19">
         <v>14</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J19" t="s">
@@ -4396,7 +4466,7 @@
       <c r="AM19" t="s">
         <v>88</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" s="2">
         <v>2.0180053720142101E+22</v>
       </c>
       <c r="AO19" t="s">
@@ -4440,7 +4510,7 @@
       <c r="A20">
         <v>581480</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>2.0190007005369999E+26</v>
       </c>
       <c r="C20">
@@ -4461,7 +4531,7 @@
       <c r="H20">
         <v>14</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J20" t="s">
@@ -4551,7 +4621,7 @@
       <c r="AM20" t="s">
         <v>113</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" s="2">
         <v>2.0190053720142098E+22</v>
       </c>
       <c r="AO20" t="s">
@@ -4595,7 +4665,7 @@
       <c r="A21">
         <v>581481</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>2.0190007005369999E+26</v>
       </c>
       <c r="C21">
@@ -4616,7 +4686,7 @@
       <c r="H21">
         <v>14</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J21" t="s">
@@ -4706,7 +4776,7 @@
       <c r="AM21" t="s">
         <v>65</v>
       </c>
-      <c r="AN21">
+      <c r="AN21" s="2">
         <v>2.0190053720162101E+22</v>
       </c>
       <c r="AO21" t="s">
@@ -4750,7 +4820,7 @@
       <c r="A22">
         <v>581482</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>2.0190007005369999E+26</v>
       </c>
       <c r="C22">
@@ -4771,7 +4841,7 @@
       <c r="H22">
         <v>14</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>9445502000109</v>
       </c>
       <c r="J22" t="s">
@@ -4861,7 +4931,7 @@
       <c r="AM22" t="s">
         <v>88</v>
       </c>
-      <c r="AN22">
+      <c r="AN22" s="2">
         <v>2.0190053720142098E+22</v>
       </c>
       <c r="AO22" t="s">
@@ -4905,7 +4975,7 @@
       <c r="A23">
         <v>816667</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C23">
@@ -4926,7 +4996,7 @@
       <c r="H23">
         <v>11</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>99999999999</v>
       </c>
       <c r="J23" t="s">
@@ -5016,7 +5086,7 @@
       <c r="AM23" t="s">
         <v>131</v>
       </c>
-      <c r="AN23">
+      <c r="AN23" s="2">
         <v>2.01800668009221E+22</v>
       </c>
       <c r="AO23" t="s">
@@ -5060,7 +5130,7 @@
       <c r="A24">
         <v>816668</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C24">
@@ -5081,7 +5151,7 @@
       <c r="H24">
         <v>11</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>99999999999</v>
       </c>
       <c r="J24" t="s">
@@ -5171,7 +5241,7 @@
       <c r="AM24" t="s">
         <v>143</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" s="2">
         <v>2.0180066800942098E+22</v>
       </c>
       <c r="AO24" t="s">
@@ -5215,7 +5285,7 @@
       <c r="A25">
         <v>816669</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C25">
@@ -5236,7 +5306,7 @@
       <c r="H25">
         <v>11</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>99999999999</v>
       </c>
       <c r="J25" t="s">
@@ -5326,7 +5396,7 @@
       <c r="AM25" t="s">
         <v>148</v>
       </c>
-      <c r="AN25">
+      <c r="AN25" s="2">
         <v>2.01800668009721E+22</v>
       </c>
       <c r="AO25" t="s">
@@ -5370,7 +5440,7 @@
       <c r="A26">
         <v>816670</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C26">
@@ -5391,7 +5461,7 @@
       <c r="H26">
         <v>11</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>99999999999</v>
       </c>
       <c r="J26" t="s">
@@ -5481,7 +5551,7 @@
       <c r="AM26" t="s">
         <v>156</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="2">
         <v>2.01800668009221E+22</v>
       </c>
       <c r="AO26" t="s">
@@ -5525,7 +5595,7 @@
       <c r="A27">
         <v>816671</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C27">
@@ -5546,7 +5616,7 @@
       <c r="H27">
         <v>11</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>99999999999</v>
       </c>
       <c r="J27" t="s">
@@ -5636,7 +5706,7 @@
       <c r="AM27" t="s">
         <v>164</v>
       </c>
-      <c r="AN27">
+      <c r="AN27" s="2">
         <v>2.0180066800902102E+22</v>
       </c>
       <c r="AO27" t="s">
@@ -5680,7 +5750,7 @@
       <c r="A28">
         <v>816672</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C28">
@@ -5701,7 +5771,7 @@
       <c r="H28">
         <v>11</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>99999999999</v>
       </c>
       <c r="J28" t="s">
@@ -5791,7 +5861,7 @@
       <c r="AM28" t="s">
         <v>156</v>
       </c>
-      <c r="AN28">
+      <c r="AN28" s="2">
         <v>2.01800668009221E+22</v>
       </c>
       <c r="AO28" t="s">
@@ -5835,7 +5905,7 @@
       <c r="A29">
         <v>816673</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C29">
@@ -5856,7 +5926,7 @@
       <c r="H29">
         <v>11</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>99999999999</v>
       </c>
       <c r="J29" t="s">
@@ -5946,7 +6016,7 @@
       <c r="AM29" t="s">
         <v>172</v>
       </c>
-      <c r="AN29">
+      <c r="AN29" s="2">
         <v>2.0180066800952102E+22</v>
       </c>
       <c r="AO29" t="s">
@@ -5990,7 +6060,7 @@
       <c r="A30">
         <v>816674</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C30">
@@ -6011,7 +6081,7 @@
       <c r="H30">
         <v>11</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>99999999999</v>
       </c>
       <c r="J30" t="s">
@@ -6101,7 +6171,7 @@
       <c r="AM30" t="s">
         <v>143</v>
       </c>
-      <c r="AN30">
+      <c r="AN30" s="2">
         <v>2.0180066800942098E+22</v>
       </c>
       <c r="AO30" t="s">
@@ -6145,7 +6215,7 @@
       <c r="A31">
         <v>816675</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C31">
@@ -6166,7 +6236,7 @@
       <c r="H31">
         <v>11</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>99999999999</v>
       </c>
       <c r="J31" t="s">
@@ -6256,7 +6326,7 @@
       <c r="AM31" t="s">
         <v>177</v>
       </c>
-      <c r="AN31">
+      <c r="AN31" s="2">
         <v>2.0180066800942098E+22</v>
       </c>
       <c r="AO31" t="s">
@@ -6300,7 +6370,7 @@
       <c r="A32">
         <v>816676</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C32">
@@ -6321,7 +6391,7 @@
       <c r="H32">
         <v>11</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>99999999999</v>
       </c>
       <c r="J32" t="s">
@@ -6411,7 +6481,7 @@
       <c r="AM32" t="s">
         <v>180</v>
       </c>
-      <c r="AN32">
+      <c r="AN32" s="2">
         <v>2.0180066800952102E+22</v>
       </c>
       <c r="AO32" t="s">
@@ -6455,7 +6525,7 @@
       <c r="A33">
         <v>816677</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C33">
@@ -6476,7 +6546,7 @@
       <c r="H33">
         <v>11</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>99999999999</v>
       </c>
       <c r="J33" t="s">
@@ -6566,7 +6636,7 @@
       <c r="AM33" t="s">
         <v>131</v>
       </c>
-      <c r="AN33">
+      <c r="AN33" s="2">
         <v>2.01800668009221E+22</v>
       </c>
       <c r="AO33" t="s">
@@ -6610,7 +6680,7 @@
       <c r="A34">
         <v>816678</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C34">
@@ -6631,7 +6701,7 @@
       <c r="H34">
         <v>11</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>99999999999</v>
       </c>
       <c r="J34" t="s">
@@ -6721,7 +6791,7 @@
       <c r="AM34" t="s">
         <v>180</v>
       </c>
-      <c r="AN34">
+      <c r="AN34" s="2">
         <v>2.0180066800952102E+22</v>
       </c>
       <c r="AO34" t="s">
@@ -6765,7 +6835,7 @@
       <c r="A35">
         <v>816679</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C35">
@@ -6786,7 +6856,7 @@
       <c r="H35">
         <v>11</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>99999999999</v>
       </c>
       <c r="J35" t="s">
@@ -6876,7 +6946,7 @@
       <c r="AM35" t="s">
         <v>180</v>
       </c>
-      <c r="AN35">
+      <c r="AN35" s="2">
         <v>2.0180066800952102E+22</v>
       </c>
       <c r="AO35" t="s">
@@ -6920,7 +6990,7 @@
       <c r="A36">
         <v>816680</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C36">
@@ -6941,7 +7011,7 @@
       <c r="H36">
         <v>11</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>99999999999</v>
       </c>
       <c r="J36" t="s">
@@ -7031,7 +7101,7 @@
       <c r="AM36" t="s">
         <v>190</v>
       </c>
-      <c r="AN36">
+      <c r="AN36" s="2">
         <v>2.0180066800982099E+22</v>
       </c>
       <c r="AO36" t="s">
@@ -7075,7 +7145,7 @@
       <c r="A37">
         <v>816681</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C37">
@@ -7096,7 +7166,7 @@
       <c r="H37">
         <v>11</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>99999999999</v>
       </c>
       <c r="J37" t="s">
@@ -7186,7 +7256,7 @@
       <c r="AM37" t="s">
         <v>156</v>
       </c>
-      <c r="AN37">
+      <c r="AN37" s="2">
         <v>2.01800668009221E+22</v>
       </c>
       <c r="AO37" t="s">
@@ -7230,7 +7300,7 @@
       <c r="A38">
         <v>816682</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C38">
@@ -7251,7 +7321,7 @@
       <c r="H38">
         <v>11</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>99999999999</v>
       </c>
       <c r="J38" t="s">
@@ -7341,7 +7411,7 @@
       <c r="AM38" t="s">
         <v>164</v>
       </c>
-      <c r="AN38">
+      <c r="AN38" s="2">
         <v>2.0180066800902102E+22</v>
       </c>
       <c r="AO38" t="s">
@@ -7385,7 +7455,7 @@
       <c r="A39">
         <v>816683</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2.0180008006680801E+26</v>
       </c>
       <c r="C39">
@@ -7406,7 +7476,7 @@
       <c r="H39">
         <v>11</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>99999999999</v>
       </c>
       <c r="J39" t="s">
@@ -7496,7 +7566,7 @@
       <c r="AM39" t="s">
         <v>180</v>
       </c>
-      <c r="AN39">
+      <c r="AN39" s="2">
         <v>2.0180066800952102E+22</v>
       </c>
       <c r="AO39" t="s">
@@ -7540,7 +7610,7 @@
       <c r="A40">
         <v>816684</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2.0180015006681499E+26</v>
       </c>
       <c r="C40">
@@ -7561,7 +7631,7 @@
       <c r="H40">
         <v>11</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>99999999999</v>
       </c>
       <c r="J40" t="s">
@@ -7651,7 +7721,7 @@
       <c r="AM40" t="s">
         <v>206</v>
       </c>
-      <c r="AN40">
+      <c r="AN40" s="2">
         <v>2.0180066800032002E+22</v>
       </c>
       <c r="AO40" t="s">
@@ -7695,7 +7765,7 @@
       <c r="A41">
         <v>816685</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>2.0180001006690099E+26</v>
       </c>
       <c r="C41">
@@ -7716,7 +7786,7 @@
       <c r="H41">
         <v>14</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>360305000104</v>
       </c>
       <c r="J41" t="s">
@@ -7806,7 +7876,7 @@
       <c r="AM41" t="s">
         <v>216</v>
       </c>
-      <c r="AN41">
+      <c r="AN41" s="2">
         <v>2.0180066900021999E+22</v>
       </c>
       <c r="AO41" t="s">
@@ -7850,7 +7920,7 @@
       <c r="A42">
         <v>816686</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C42">
@@ -7871,7 +7941,7 @@
       <c r="H42">
         <v>14</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>360305000104</v>
       </c>
       <c r="J42" t="s">
@@ -7961,7 +8031,7 @@
       <c r="AM42" t="s">
         <v>216</v>
       </c>
-      <c r="AN42">
+      <c r="AN42" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO42" t="s">
@@ -8005,7 +8075,7 @@
       <c r="A43">
         <v>816687</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>2.02000010066901E+26</v>
       </c>
       <c r="C43">
@@ -8026,7 +8096,7 @@
       <c r="H43">
         <v>14</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>360305000104</v>
       </c>
       <c r="J43" t="s">
@@ -8116,7 +8186,7 @@
       <c r="AM43" t="s">
         <v>216</v>
       </c>
-      <c r="AN43">
+      <c r="AN43" s="2">
         <v>2.0200066900022002E+22</v>
       </c>
       <c r="AO43" t="s">
@@ -8160,7 +8230,7 @@
       <c r="A44">
         <v>816688</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>2.0210001006690099E+26</v>
       </c>
       <c r="C44">
@@ -8181,7 +8251,7 @@
       <c r="H44">
         <v>14</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>360305000104</v>
       </c>
       <c r="J44" t="s">
@@ -8271,7 +8341,7 @@
       <c r="AM44" t="s">
         <v>216</v>
       </c>
-      <c r="AN44">
+      <c r="AN44" s="2">
         <v>2.0210066900021999E+22</v>
       </c>
       <c r="AO44" t="s">
@@ -8315,7 +8385,7 @@
       <c r="A45">
         <v>816689</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>2.0180001006690099E+26</v>
       </c>
       <c r="C45">
@@ -8336,7 +8406,7 @@
       <c r="H45">
         <v>14</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>394460005887</v>
       </c>
       <c r="J45" t="s">
@@ -8426,7 +8496,7 @@
       <c r="AM45" t="s">
         <v>216</v>
       </c>
-      <c r="AN45">
+      <c r="AN45" s="2">
         <v>2.0180066900021999E+22</v>
       </c>
       <c r="AO45" t="s">
@@ -8470,7 +8540,7 @@
       <c r="A46">
         <v>816690</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>2.02000010066901E+26</v>
       </c>
       <c r="C46">
@@ -8491,7 +8561,7 @@
       <c r="H46">
         <v>14</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>394460005887</v>
       </c>
       <c r="J46" t="s">
@@ -8581,7 +8651,7 @@
       <c r="AM46" t="s">
         <v>216</v>
       </c>
-      <c r="AN46">
+      <c r="AN46" s="2">
         <v>2.0200066900022002E+22</v>
       </c>
       <c r="AO46" t="s">
@@ -8625,7 +8695,7 @@
       <c r="A47">
         <v>816691</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>2.02000010066901E+26</v>
       </c>
       <c r="C47">
@@ -8646,7 +8716,7 @@
       <c r="H47">
         <v>14</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>394460005887</v>
       </c>
       <c r="J47" t="s">
@@ -8736,7 +8806,7 @@
       <c r="AM47" t="s">
         <v>216</v>
       </c>
-      <c r="AN47">
+      <c r="AN47" s="2">
         <v>2.0200066900022002E+22</v>
       </c>
       <c r="AO47" t="s">
@@ -8780,7 +8850,7 @@
       <c r="A48">
         <v>816692</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C48">
@@ -8801,7 +8871,7 @@
       <c r="H48">
         <v>11</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>397376758</v>
       </c>
       <c r="J48" t="s">
@@ -8891,7 +8961,7 @@
       <c r="AM48" t="s">
         <v>216</v>
       </c>
-      <c r="AN48">
+      <c r="AN48" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO48" t="s">
@@ -8935,7 +9005,7 @@
       <c r="A49">
         <v>816693</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C49">
@@ -8956,7 +9026,7 @@
       <c r="H49">
         <v>11</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>397376758</v>
       </c>
       <c r="J49" t="s">
@@ -9046,7 +9116,7 @@
       <c r="AM49" t="s">
         <v>216</v>
       </c>
-      <c r="AN49">
+      <c r="AN49" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO49" t="s">
@@ -9090,7 +9160,7 @@
       <c r="A50">
         <v>816694</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C50">
@@ -9111,7 +9181,7 @@
       <c r="H50">
         <v>11</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>397376758</v>
       </c>
       <c r="J50" t="s">
@@ -9201,7 +9271,7 @@
       <c r="AM50" t="s">
         <v>251</v>
       </c>
-      <c r="AN50">
+      <c r="AN50" s="2">
         <v>2.0190066900641998E+22</v>
       </c>
       <c r="AO50" t="s">
@@ -9245,7 +9315,7 @@
       <c r="A51">
         <v>816695</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C51">
@@ -9266,7 +9336,7 @@
       <c r="H51">
         <v>11</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>397376758</v>
       </c>
       <c r="J51" t="s">
@@ -9356,7 +9426,7 @@
       <c r="AM51" t="s">
         <v>216</v>
       </c>
-      <c r="AN51">
+      <c r="AN51" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO51" t="s">
@@ -9400,7 +9470,7 @@
       <c r="A52">
         <v>816696</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C52">
@@ -9421,7 +9491,7 @@
       <c r="H52">
         <v>11</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>504115782</v>
       </c>
       <c r="J52" t="s">
@@ -9511,7 +9581,7 @@
       <c r="AM52" t="s">
         <v>251</v>
       </c>
-      <c r="AN52">
+      <c r="AN52" s="2">
         <v>2.0190066900641998E+22</v>
       </c>
       <c r="AO52" t="s">
@@ -9555,7 +9625,7 @@
       <c r="A53">
         <v>816697</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C53">
@@ -9576,7 +9646,7 @@
       <c r="H53">
         <v>11</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <v>504115782</v>
       </c>
       <c r="J53" t="s">
@@ -9666,7 +9736,7 @@
       <c r="AM53" t="s">
         <v>251</v>
       </c>
-      <c r="AN53">
+      <c r="AN53" s="2">
         <v>2.0190066900641998E+22</v>
       </c>
       <c r="AO53" t="s">
@@ -9710,7 +9780,7 @@
       <c r="A54">
         <v>816698</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>2.0180001006690099E+26</v>
       </c>
       <c r="C54">
@@ -9731,7 +9801,7 @@
       <c r="H54">
         <v>11</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <v>636360776</v>
       </c>
       <c r="J54" t="s">
@@ -9821,7 +9891,7 @@
       <c r="AM54" t="s">
         <v>261</v>
       </c>
-      <c r="AN54">
+      <c r="AN54" s="2">
         <v>2.0180066900011999E+22</v>
       </c>
       <c r="AO54" t="s">
@@ -9865,7 +9935,7 @@
       <c r="A55">
         <v>816699</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>2.02000010066901E+26</v>
       </c>
       <c r="C55">
@@ -9886,7 +9956,7 @@
       <c r="H55">
         <v>11</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>1093582790</v>
       </c>
       <c r="J55" t="s">
@@ -9976,7 +10046,7 @@
       <c r="AM55" t="s">
         <v>261</v>
       </c>
-      <c r="AN55">
+      <c r="AN55" s="2">
         <v>2.0200066900011998E+22</v>
       </c>
       <c r="AO55" t="s">
@@ -10020,7 +10090,7 @@
       <c r="A56">
         <v>816700</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>2.0180001006690099E+26</v>
       </c>
       <c r="C56">
@@ -10041,7 +10111,7 @@
       <c r="H56">
         <v>14</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>1503399000196</v>
       </c>
       <c r="J56" t="s">
@@ -10131,7 +10201,7 @@
       <c r="AM56" t="s">
         <v>216</v>
       </c>
-      <c r="AN56">
+      <c r="AN56" s="2">
         <v>2.0180066900021999E+22</v>
       </c>
       <c r="AO56" t="s">
@@ -10175,7 +10245,7 @@
       <c r="A57">
         <v>816701</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C57">
@@ -10196,7 +10266,7 @@
       <c r="H57">
         <v>14</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>1503399000196</v>
       </c>
       <c r="J57" t="s">
@@ -10286,7 +10356,7 @@
       <c r="AM57" t="s">
         <v>216</v>
       </c>
-      <c r="AN57">
+      <c r="AN57" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO57" t="s">
@@ -10330,7 +10400,7 @@
       <c r="A58">
         <v>816702</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C58">
@@ -10351,7 +10421,7 @@
       <c r="H58">
         <v>14</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <v>1503399000196</v>
       </c>
       <c r="J58" t="s">
@@ -10441,7 +10511,7 @@
       <c r="AM58" t="s">
         <v>216</v>
       </c>
-      <c r="AN58">
+      <c r="AN58" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO58" t="s">
@@ -10485,7 +10555,7 @@
       <c r="A59">
         <v>816703</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>2.02000010066901E+26</v>
       </c>
       <c r="C59">
@@ -10506,7 +10576,7 @@
       <c r="H59">
         <v>14</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>1503399000196</v>
       </c>
       <c r="J59" t="s">
@@ -10596,7 +10666,7 @@
       <c r="AM59" t="s">
         <v>216</v>
       </c>
-      <c r="AN59">
+      <c r="AN59" s="2">
         <v>2.0200066900022002E+22</v>
       </c>
       <c r="AO59" t="s">
@@ -10640,7 +10710,7 @@
       <c r="A60">
         <v>816704</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>2.0180001006690099E+26</v>
       </c>
       <c r="C60">
@@ -10661,7 +10731,7 @@
       <c r="H60">
         <v>11</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>1559525797</v>
       </c>
       <c r="J60" t="s">
@@ -10751,7 +10821,7 @@
       <c r="AM60" t="s">
         <v>261</v>
       </c>
-      <c r="AN60">
+      <c r="AN60" s="2">
         <v>2.0180066900011999E+22</v>
       </c>
       <c r="AO60" t="s">
@@ -10795,7 +10865,7 @@
       <c r="A61">
         <v>816705</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C61">
@@ -10816,7 +10886,7 @@
       <c r="H61">
         <v>11</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>1630833711</v>
       </c>
       <c r="J61" t="s">
@@ -10906,7 +10976,7 @@
       <c r="AM61" t="s">
         <v>261</v>
       </c>
-      <c r="AN61">
+      <c r="AN61" s="2">
         <v>2.0190066900012001E+22</v>
       </c>
       <c r="AO61" t="s">
@@ -10950,7 +11020,7 @@
       <c r="A62">
         <v>816706</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>2.0180001006690099E+26</v>
       </c>
       <c r="C62">
@@ -10971,7 +11041,7 @@
       <c r="H62">
         <v>14</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>1669866000152</v>
       </c>
       <c r="J62" t="s">
@@ -11061,7 +11131,7 @@
       <c r="AM62" t="s">
         <v>216</v>
       </c>
-      <c r="AN62">
+      <c r="AN62" s="2">
         <v>2.0180066900021999E+22</v>
       </c>
       <c r="AO62" t="s">
@@ -11105,7 +11175,7 @@
       <c r="A63">
         <v>816707</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C63">
@@ -11126,7 +11196,7 @@
       <c r="H63">
         <v>14</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>2124047000192</v>
       </c>
       <c r="J63" t="s">
@@ -11216,7 +11286,7 @@
       <c r="AM63" t="s">
         <v>216</v>
       </c>
-      <c r="AN63">
+      <c r="AN63" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO63" t="s">
@@ -11260,7 +11330,7 @@
       <c r="A64">
         <v>816708</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C64">
@@ -11281,7 +11351,7 @@
       <c r="H64">
         <v>14</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>2124047000192</v>
       </c>
       <c r="J64" t="s">
@@ -11371,7 +11441,7 @@
       <c r="AM64" t="s">
         <v>216</v>
       </c>
-      <c r="AN64">
+      <c r="AN64" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO64" t="s">
@@ -11415,7 +11485,7 @@
       <c r="A65">
         <v>816709</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C65">
@@ -11436,7 +11506,7 @@
       <c r="H65">
         <v>14</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>2310921000186</v>
       </c>
       <c r="J65" t="s">
@@ -11526,7 +11596,7 @@
       <c r="AM65" t="s">
         <v>216</v>
       </c>
-      <c r="AN65">
+      <c r="AN65" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO65" t="s">
@@ -11570,7 +11640,7 @@
       <c r="A66">
         <v>816710</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>2.0190001006690101E+26</v>
       </c>
       <c r="C66">
@@ -11591,7 +11661,7 @@
       <c r="H66">
         <v>14</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>2310921000186</v>
       </c>
       <c r="J66" t="s">
@@ -11681,7 +11751,7 @@
       <c r="AM66" t="s">
         <v>216</v>
       </c>
-      <c r="AN66">
+      <c r="AN66" s="2">
         <v>2.0190066900022E+22</v>
       </c>
       <c r="AO66" t="s">
@@ -11725,7 +11795,7 @@
       <c r="A67">
         <v>1048465</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>2.01900030078103E+26</v>
       </c>
       <c r="C67">
@@ -11746,7 +11816,7 @@
       <c r="H67">
         <v>14</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <v>39223581000166</v>
       </c>
       <c r="J67" t="s">
@@ -11836,7 +11906,7 @@
       <c r="AM67" t="s">
         <v>304</v>
       </c>
-      <c r="AN67">
+      <c r="AN67" s="2">
         <v>2.0190078107232001E+22</v>
       </c>
       <c r="AO67" t="s">
@@ -11880,7 +11950,7 @@
       <c r="A68">
         <v>1048466</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>2.0200003007810299E+26</v>
       </c>
       <c r="C68">
@@ -11901,7 +11971,7 @@
       <c r="H68">
         <v>14</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>39223581000166</v>
       </c>
       <c r="J68" t="s">
@@ -11991,7 +12061,7 @@
       <c r="AM68" t="s">
         <v>304</v>
       </c>
-      <c r="AN68">
+      <c r="AN68" s="2">
         <v>2.0200078107231998E+22</v>
       </c>
       <c r="AO68" t="s">
@@ -12035,7 +12105,7 @@
       <c r="A69">
         <v>1048467</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>2.0200003007810299E+26</v>
       </c>
       <c r="C69">
@@ -12056,7 +12126,7 @@
       <c r="H69">
         <v>14</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>39223581000166</v>
       </c>
       <c r="J69" t="s">
@@ -12146,7 +12216,7 @@
       <c r="AM69" t="s">
         <v>304</v>
       </c>
-      <c r="AN69">
+      <c r="AN69" s="2">
         <v>2.0200078107231998E+22</v>
       </c>
       <c r="AO69" t="s">
@@ -12190,7 +12260,7 @@
       <c r="A70">
         <v>1048468</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>2.0200003007810299E+26</v>
       </c>
       <c r="C70">
@@ -12211,7 +12281,7 @@
       <c r="H70">
         <v>14</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <v>39223581000166</v>
       </c>
       <c r="J70" t="s">
@@ -12301,7 +12371,7 @@
       <c r="AM70" t="s">
         <v>304</v>
       </c>
-      <c r="AN70">
+      <c r="AN70" s="2">
         <v>2.0200078107231998E+22</v>
       </c>
       <c r="AO70" t="s">
@@ -12345,7 +12415,7 @@
       <c r="A71">
         <v>1048469</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>2.0210003007810301E+26</v>
       </c>
       <c r="C71">
@@ -12366,7 +12436,7 @@
       <c r="H71">
         <v>14</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <v>39223581000166</v>
       </c>
       <c r="J71" t="s">
@@ -12456,7 +12526,7 @@
       <c r="AM71" t="s">
         <v>323</v>
       </c>
-      <c r="AN71">
+      <c r="AN71" s="2">
         <v>2.0210078121511998E+22</v>
       </c>
       <c r="AO71" t="s">
@@ -12500,7 +12570,7 @@
       <c r="A72">
         <v>1048470</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C72">
@@ -12521,7 +12591,7 @@
       <c r="H72">
         <v>14</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <v>39232640000162</v>
       </c>
       <c r="J72" t="s">
@@ -12611,7 +12681,7 @@
       <c r="AM72" t="s">
         <v>333</v>
       </c>
-      <c r="AN72">
+      <c r="AN72" s="2">
         <v>2.0180078121512002E+22</v>
       </c>
       <c r="AO72" t="s">
@@ -12655,7 +12725,7 @@
       <c r="A73">
         <v>1048471</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>2.0200003007810299E+26</v>
       </c>
       <c r="C73">
@@ -12676,7 +12746,7 @@
       <c r="H73">
         <v>14</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <v>39232640000162</v>
       </c>
       <c r="J73" t="s">
@@ -12766,7 +12836,7 @@
       <c r="AM73" t="s">
         <v>336</v>
       </c>
-      <c r="AN73">
+      <c r="AN73" s="2">
         <v>2.0200078101511999E+22</v>
       </c>
       <c r="AO73" t="s">
@@ -12810,7 +12880,7 @@
       <c r="A74">
         <v>1048472</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C74">
@@ -12831,7 +12901,7 @@
       <c r="H74">
         <v>14</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J74" t="s">
@@ -12921,7 +12991,7 @@
       <c r="AM74" t="s">
         <v>342</v>
       </c>
-      <c r="AN74">
+      <c r="AN74" s="2">
         <v>2.0180078121501998E+22</v>
       </c>
       <c r="AO74" t="s">
@@ -12965,7 +13035,7 @@
       <c r="A75">
         <v>1048473</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C75">
@@ -12986,7 +13056,7 @@
       <c r="H75">
         <v>14</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J75" t="s">
@@ -13076,7 +13146,7 @@
       <c r="AM75" t="s">
         <v>349</v>
       </c>
-      <c r="AN75">
+      <c r="AN75" s="2">
         <v>2.0180078127222002E+22</v>
       </c>
       <c r="AO75" t="s">
@@ -13120,7 +13190,7 @@
       <c r="A76">
         <v>1048474</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C76">
@@ -13141,7 +13211,7 @@
       <c r="H76">
         <v>14</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J76" t="s">
@@ -13231,7 +13301,7 @@
       <c r="AM76" t="s">
         <v>349</v>
       </c>
-      <c r="AN76">
+      <c r="AN76" s="2">
         <v>2.0180078127222002E+22</v>
       </c>
       <c r="AO76" t="s">
@@ -13275,7 +13345,7 @@
       <c r="A77">
         <v>1048475</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C77">
@@ -13296,7 +13366,7 @@
       <c r="H77">
         <v>14</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J77" t="s">
@@ -13386,7 +13456,7 @@
       <c r="AM77" t="s">
         <v>342</v>
       </c>
-      <c r="AN77">
+      <c r="AN77" s="2">
         <v>2.0180078121501998E+22</v>
       </c>
       <c r="AO77" t="s">
@@ -13430,7 +13500,7 @@
       <c r="A78">
         <v>1048476</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C78">
@@ -13451,7 +13521,7 @@
       <c r="H78">
         <v>14</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J78" t="s">
@@ -13541,7 +13611,7 @@
       <c r="AM78" t="s">
         <v>342</v>
       </c>
-      <c r="AN78">
+      <c r="AN78" s="2">
         <v>2.0180078121501998E+22</v>
       </c>
       <c r="AO78" t="s">
@@ -13585,7 +13655,7 @@
       <c r="A79">
         <v>1048477</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C79">
@@ -13606,7 +13676,7 @@
       <c r="H79">
         <v>14</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J79" t="s">
@@ -13696,7 +13766,7 @@
       <c r="AM79" t="s">
         <v>349</v>
       </c>
-      <c r="AN79">
+      <c r="AN79" s="2">
         <v>2.0180078127222002E+22</v>
       </c>
       <c r="AO79" t="s">
@@ -13740,7 +13810,7 @@
       <c r="A80">
         <v>1048478</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C80">
@@ -13761,7 +13831,7 @@
       <c r="H80">
         <v>14</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J80" t="s">
@@ -13851,7 +13921,7 @@
       <c r="AM80" t="s">
         <v>342</v>
       </c>
-      <c r="AN80">
+      <c r="AN80" s="2">
         <v>2.0180078121501998E+22</v>
       </c>
       <c r="AO80" t="s">
@@ -13895,7 +13965,7 @@
       <c r="A81">
         <v>1048479</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>2.0180003007809999E+26</v>
       </c>
       <c r="C81">
@@ -13916,7 +13986,7 @@
       <c r="H81">
         <v>14</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>39691605000101</v>
       </c>
       <c r="J81" t="s">
@@ -14006,7 +14076,7 @@
       <c r="AM81" t="s">
         <v>342</v>
       </c>
-      <c r="AN81">
+      <c r="AN81" s="2">
         <v>2.0180078121501998E+22</v>
       </c>
       <c r="AO81" t="s">
@@ -14048,5 +14118,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/04 _ DATASET/tce_parte.xlsx
+++ b/docs/04 _ DATASET/tce_parte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulu\Documents\GitHub\cefet-proj-constr-sistemas\docs\04 _ DATASET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46244A6-5D43-4490-BC36-8AB44847F1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BAC135-5D3E-48DB-B29E-2D97E5941746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3D1587D-C303-4621-A82F-807D2F3E8C07}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="13245" windowHeight="10560" xr2:uid="{A3D1587D-C303-4621-A82F-807D2F3E8C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="365">
   <si>
     <t>IdEmpenho</t>
   </si>
@@ -1127,6 +1127,9 @@
   </si>
   <si>
     <t>REF. A GRATIFICACAO POR TEMPO DE SERVICO (TRIENIO) - OSTRASPREV - RIO DAS OSTRAS PREVIDENCIA</t>
+  </si>
+  <si>
+    <t>ITEM</t>
   </si>
 </sst>
 </file>
@@ -1498,10 +1501,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EA7EF7-BBCF-4A42-8D13-2FD9C081BAD7}">
   <dimension ref="A1:AZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" sqref="A1:AZ1"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1564,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
